--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -493,7 +493,12 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Grade</t>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>rank</t>
         </is>
       </c>
     </row>
@@ -503,23 +508,31 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>kim</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>21.2</v>
+      <c r="G2" s="3" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
@@ -528,23 +541,31 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>17.3</v>
+      <c r="G3" s="3" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="2">
@@ -553,23 +574,31 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>20</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>30.2</v>
+      <c r="G4" s="3" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="2">
@@ -578,23 +607,229 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>choi</t>
+          <t>Olivia</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40.1</v>
+      <c r="E7" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="2">
+      <c r="A8" s="3" t="n">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>58.51000000000001</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="2">
+      <c r="A9" s="3" t="n">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Ava</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="2">
+      <c r="A10" s="3" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>52.35999999999999</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="2">
+      <c r="A11" s="3" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>63.96000000000001</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -531,9 +531,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="I2" s="3" t="n"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="n">
@@ -564,9 +562,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>8</v>
-      </c>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -597,9 +593,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="n">
@@ -630,9 +624,7 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>9</v>
-      </c>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -663,9 +655,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="2">
       <c r="A7" s="3" t="n">
@@ -696,9 +686,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>7</v>
-      </c>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -729,9 +717,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>10</v>
-      </c>
+      <c r="I8" s="3" t="n"/>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="2">
       <c r="A9" s="3" t="n">
@@ -762,9 +748,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="I9" s="3" t="n"/>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -795,9 +779,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>4</v>
-      </c>
+      <c r="I10" s="3" t="n"/>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="2">
       <c r="A11" s="3" t="n">
@@ -828,9 +810,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>6</v>
-      </c>
+      <c r="I11" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -447,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -528,7 +529,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
@@ -559,7 +560,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I3" s="3" t="n"/>
@@ -590,7 +591,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
@@ -652,7 +653,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I6" s="3" t="n"/>
@@ -683,7 +684,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I7" s="3" t="n"/>
@@ -710,11 +711,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>58.51000000000001</v>
+        <v>58.51</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I8" s="3" t="n"/>
@@ -745,7 +746,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
@@ -772,11 +773,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>52.35999999999999</v>
+        <v>52.36</v>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I10" s="3" t="n"/>
@@ -803,14 +804,914 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>63.96000000000001</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A</t>
+        <v>63.96</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
         </is>
       </c>
       <c r="I11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="2">
+      <c r="A12" s="3" t="n">
+        <v>20160001</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>kim</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="2">
+      <c r="A13" s="3" t="n">
+        <v>20160002</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>dfsg</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="2">
+      <c r="A14" s="3" t="n">
+        <v>20160003</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>dhd</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="2">
+      <c r="A15" s="3" t="n">
+        <v>20160004</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>qerd</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="2">
+      <c r="A16" s="3" t="n">
+        <v>20160005</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>xcdfs</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="2">
+      <c r="A17" s="3" t="n">
+        <v>20160006</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>dgag</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="2">
+      <c r="A18" s="3" t="n">
+        <v>20160007</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>adfaf</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="2">
+      <c r="A19" s="3" t="n">
+        <v>20160008</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>zdgfd</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="2">
+      <c r="A20" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="2">
+      <c r="A21" s="3" t="n">
+        <v>20170001</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>daf</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="2">
+      <c r="A22" s="3" t="n">
+        <v>20170002</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>qedfc</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="2">
+      <c r="A23" s="3" t="n">
+        <v>20170003</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="2">
+      <c r="A24" s="3" t="n">
+        <v>20170004</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>dfafa</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="2">
+      <c r="A25" s="3" t="n">
+        <v>20170005</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>gaga</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>91.81</v>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="2">
+      <c r="A26" s="3" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="2">
+      <c r="A27" s="3" t="n">
+        <v>20170007</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>gdh</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="2">
+      <c r="A28" s="3" t="n">
+        <v>20170008</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>zvfd</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="2">
+      <c r="A29" s="3" t="n">
+        <v>20170009</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>eru</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="2">
+      <c r="A30" s="3" t="n">
+        <v>20170010</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>khfd</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="2">
+      <c r="A31" s="3" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="2">
+      <c r="A32" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="2">
+      <c r="A33" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="2">
+      <c r="A34" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="2">
+      <c r="A35" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="2">
+      <c r="A36" s="3" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="2">
+      <c r="A37" s="3" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="2">
+      <c r="A38" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="2">
+      <c r="A39" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="2">
+      <c r="A40" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="2">
+      <c r="A41" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -825,4 +1726,405 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Midterm </t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>FinalTerm</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Homwork</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="A5" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="2">
+      <c r="A8" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="2">
+      <c r="A9" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="2">
+      <c r="A10" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="2">
+      <c r="A11" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="2">
+      <c r="A12" s="3" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -450,11 +450,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I3" s="3" t="n"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I5" s="3" t="n"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I6" s="3" t="n"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I7" s="3" t="n"/>
@@ -711,11 +711,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>58.51</v>
+        <v>58.51000000000001</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I8" s="3" t="n"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
@@ -773,11 +773,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>52.36</v>
+        <v>52.35999999999999</v>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I10" s="3" t="n"/>
@@ -804,11 +804,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>63.96</v>
+        <v>63.96000000000001</v>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="I11" s="3" t="n"/>
@@ -835,11 +835,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>57.6</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -865,11 +865,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>52.9</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -925,11 +925,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>60.4</v>
+        <v>60.40000000000001</v>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -985,11 +985,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>60.4</v>
+        <v>60.40000000000001</v>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1075,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1285,11 +1285,11 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>49.18</v>
+        <v>49.17999999999999</v>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1405,11 +1405,11 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>63.96</v>
+        <v>63.96000000000001</v>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -1435,11 +1435,11 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1465,11 +1465,11 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1495,11 +1495,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1525,11 +1525,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1615,11 +1615,11 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1645,11 +1645,11 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1675,11 +1675,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1705,11 +1705,11 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>63.1</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -1736,11 +1736,11 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -1805,10 +1805,10 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1835,10 +1835,10 @@
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1865,10 +1865,10 @@
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1895,10 +1895,10 @@
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1925,10 +1925,10 @@
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1955,10 +1955,10 @@
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -1985,10 +1985,10 @@
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -2015,10 +2015,10 @@
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -2045,10 +2045,10 @@
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -2075,10 +2075,10 @@
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -2105,10 +2105,10 @@
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="3" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -462,11 +463,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K44" activeCellId="0" sqref="K44"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="4" t="inlineStr">
@@ -723,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>58.51000000000001</v>
+        <v>58.51</v>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
@@ -785,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>52.35999999999999</v>
+        <v>52.36</v>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
@@ -816,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>63.96000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>57.59999999999999</v>
+        <v>57.6</v>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
@@ -878,11 +879,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>52.90000000000001</v>
+        <v>52.9</v>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I13" s="5" t="n"/>
@@ -940,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>60.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
@@ -1002,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>60.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
@@ -1095,11 +1096,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I20" s="5" t="n"/>
@@ -1312,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>49.17999999999999</v>
+        <v>49.18</v>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
@@ -1436,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>63.96000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
@@ -1467,11 +1468,11 @@
         <v>1</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I32" s="5" t="n"/>
@@ -1498,11 +1499,11 @@
         <v>1</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I33" s="5" t="n"/>
@@ -1529,11 +1530,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I34" s="5" t="n"/>
@@ -1560,11 +1561,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I35" s="5" t="n"/>
@@ -1653,11 +1654,11 @@
         <v>1</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I38" s="5" t="n"/>
@@ -1684,11 +1685,11 @@
         <v>1</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I39" s="5" t="n"/>
@@ -1715,11 +1716,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I40" s="5" t="n"/>
@@ -1746,11 +1747,11 @@
         <v>1</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>63.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I41" s="5" t="n"/>
@@ -1768,4 +1769,195 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Midterm </t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>FinalTerm</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Homwork</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -463,11 +463,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="4" t="inlineStr">
@@ -545,7 +545,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n"/>
+      <c r="I2" s="5" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="5" t="n">
@@ -576,7 +578,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n"/>
+      <c r="I3" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="5" t="n">
@@ -607,7 +611,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n"/>
+      <c r="I4" s="5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="5" t="n">
@@ -638,7 +644,9 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n"/>
+      <c r="I5" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="5" t="n">
@@ -669,7 +677,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n"/>
+      <c r="I6" s="5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="5" t="n">
@@ -700,7 +710,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I7" s="5" t="n"/>
+      <c r="I7" s="5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="5" t="n">
@@ -731,7 +743,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I8" s="5" t="n"/>
+      <c r="I8" s="5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="5" t="n">
@@ -762,7 +776,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n"/>
+      <c r="I9" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="5" t="n">
@@ -793,7 +809,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I10" s="5" t="n"/>
+      <c r="I10" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="5" t="n">
@@ -824,7 +842,9 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I11" s="5" t="n"/>
+      <c r="I11" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="5" t="n">
@@ -855,7 +875,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I12" s="5" t="n"/>
+      <c r="I12" s="5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="5" t="n">
@@ -886,7 +908,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I13" s="5" t="n"/>
+      <c r="I13" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="5" t="n">
@@ -917,7 +941,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I14" s="5" t="n"/>
+      <c r="I14" s="5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="5" t="n">
@@ -948,7 +974,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I15" s="5" t="n"/>
+      <c r="I15" s="5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="5" t="n">
@@ -979,7 +1007,9 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I16" s="5" t="n"/>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="5" t="n">
@@ -1010,7 +1040,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I17" s="5" t="n"/>
+      <c r="I17" s="5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="5" t="n">
@@ -1041,7 +1073,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I18" s="5" t="n"/>
+      <c r="I18" s="5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="5" t="n">
@@ -1072,7 +1106,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I19" s="5" t="n"/>
+      <c r="I19" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="5" t="n">
@@ -1103,7 +1139,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I20" s="5" t="n"/>
+      <c r="I20" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="5" t="n">
@@ -1134,7 +1172,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I21" s="5" t="n"/>
+      <c r="I21" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="5" t="n">
@@ -1165,7 +1205,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I22" s="5" t="n"/>
+      <c r="I22" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="5" t="n">
@@ -1196,7 +1238,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I23" s="5" t="n"/>
+      <c r="I23" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="5" t="n">
@@ -1227,7 +1271,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I24" s="5" t="n"/>
+      <c r="I24" s="5" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="5" t="n">
@@ -1258,7 +1304,9 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I25" s="5" t="n"/>
+      <c r="I25" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="5" t="n">
@@ -1289,7 +1337,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I26" s="5" t="n"/>
+      <c r="I26" s="5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="5" t="n">
@@ -1320,7 +1370,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I27" s="5" t="n"/>
+      <c r="I27" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="5" t="n">
@@ -1351,7 +1403,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I28" s="5" t="n"/>
+      <c r="I28" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="5" t="n">
@@ -1382,7 +1436,9 @@
           <t>C0</t>
         </is>
       </c>
-      <c r="I29" s="5" t="n"/>
+      <c r="I29" s="5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="5" t="n">
@@ -1413,7 +1469,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I30" s="5" t="n"/>
+      <c r="I30" s="5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="5" t="n">
@@ -1444,7 +1502,9 @@
           <t>A+</t>
         </is>
       </c>
-      <c r="I31" s="5" t="n"/>
+      <c r="I31" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="3">
       <c r="A32" s="5" t="n">
@@ -1475,7 +1535,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I32" s="5" t="n"/>
+      <c r="I32" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="3">
       <c r="A33" s="5" t="n">
@@ -1506,7 +1568,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I33" s="5" t="n"/>
+      <c r="I33" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="3">
       <c r="A34" s="5" t="n">
@@ -1537,7 +1601,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I34" s="5" t="n"/>
+      <c r="I34" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="3">
       <c r="A35" s="5" t="n">
@@ -1568,7 +1634,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I35" s="5" t="n"/>
+      <c r="I35" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="3">
       <c r="A36" s="5" t="n">
@@ -1599,7 +1667,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I36" s="5" t="n"/>
+      <c r="I36" s="5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="3">
       <c r="A37" s="5" t="n">
@@ -1630,7 +1700,9 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="I37" s="5" t="n"/>
+      <c r="I37" s="5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="3">
       <c r="A38" s="5" t="n">
@@ -1661,7 +1733,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I38" s="5" t="n"/>
+      <c r="I38" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="3">
       <c r="A39" s="5" t="n">
@@ -1692,7 +1766,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I39" s="5" t="n"/>
+      <c r="I39" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="3">
       <c r="A40" s="5" t="n">
@@ -1723,7 +1799,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I40" s="5" t="n"/>
+      <c r="I40" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="3">
       <c r="A41" s="5" t="n">
@@ -1754,7 +1832,9 @@
           <t>B+</t>
         </is>
       </c>
-      <c r="I41" s="5" t="n"/>
+      <c r="I41" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1777,13 +1857,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="4" t="inlineStr">
@@ -1856,6 +1936,9 @@
           <t>C0</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="5" t="n">
@@ -1886,6 +1969,9 @@
           <t>C0</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="5" t="n">
@@ -1916,6 +2002,9 @@
           <t>C0</t>
         </is>
       </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="5" t="n">
@@ -1945,6 +2034,9 @@
         <is>
           <t>C0</t>
         </is>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -37,6 +38,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -74,7 +82,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -84,12 +92,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -460,175 +486,1646 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Midterm </t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>FinalTerm</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Homwork</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="3">
-      <c r="A2" s="5" t="n">
-        <v>20160009</v>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>afdaf</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="I1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="6">
+      <c r="A2" s="8" t="n">
+        <v>20140001</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="6">
+      <c r="A3" s="8" t="n">
+        <v>20140002</v>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="6">
+      <c r="A4" s="8" t="n">
+        <v>20140003</v>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="6">
+      <c r="A5" s="8" t="n">
+        <v>20140004</v>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="6">
+      <c r="A6" s="8" t="n">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="6">
+      <c r="A7" s="8" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="6">
+      <c r="A8" s="8" t="n">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="n"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="6">
+      <c r="A9" s="8" t="n">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Ava</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="6">
+      <c r="A10" s="8" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>52.36</v>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="6">
+      <c r="A11" s="8" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="6">
+      <c r="A12" s="8" t="n">
+        <v>20160001</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>kim</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="6">
+      <c r="A13" s="8" t="n">
+        <v>20160002</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>dfsg</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="6">
+      <c r="A14" s="8" t="n">
+        <v>20160003</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>dhd</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="E14" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="6">
+      <c r="A15" s="8" t="n">
+        <v>20160004</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>qerd</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="3">
-      <c r="A3" s="5" t="n">
-        <v>20160009</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>afdaf</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="6">
+      <c r="A16" s="8" t="n">
+        <v>20160005</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>xcdfs</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="6">
+      <c r="A17" s="8" t="n">
+        <v>20160006</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>dgag</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="3">
-      <c r="A4" s="5" t="n">
-        <v>20160009</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>afdaf</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="I17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="6">
+      <c r="A18" s="8" t="n">
+        <v>20160007</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>adfaf</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="6">
+      <c r="A19" s="8" t="n">
+        <v>20160008</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>zdgfd</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="6">
+      <c r="A20" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="E20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="6">
+      <c r="A21" s="8" t="n">
+        <v>20170001</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>daf</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="H21" s="7" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="3">
-      <c r="A5" s="5" t="n">
-        <v>20160009</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>afdaf</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="I21" s="8" t="n"/>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="6">
+      <c r="A22" s="8" t="n">
+        <v>20170002</v>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>qedfc</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="D22" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>63.09999999999999</v>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="E22" s="8" t="n">
+        <v>68</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
       </c>
+      <c r="I22" s="8" t="n"/>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="6">
+      <c r="A23" s="8" t="n">
+        <v>20170003</v>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H23" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n"/>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="6">
+      <c r="A24" s="8" t="n">
+        <v>20170004</v>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>dfafa</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="H24" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n"/>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="6">
+      <c r="A25" s="8" t="n">
+        <v>20170005</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>gaga</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>91.81</v>
+      </c>
+      <c r="H25" s="7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="6">
+      <c r="A26" s="8" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="6">
+      <c r="A27" s="8" t="n">
+        <v>20170007</v>
+      </c>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>gdh</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="H27" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="6">
+      <c r="A28" s="8" t="n">
+        <v>20170008</v>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>zvfd</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H28" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="6">
+      <c r="A29" s="8" t="n">
+        <v>20170009</v>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>eru</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="H29" s="7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="6">
+      <c r="A30" s="8" t="n">
+        <v>20170010</v>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>khfd</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="H30" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="6">
+      <c r="A31" s="8" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="6">
+      <c r="A32" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="6">
+      <c r="A33" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="6">
+      <c r="A34" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="n"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="6">
+      <c r="A35" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="n"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="6">
+      <c r="A36" s="8" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="n"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="6">
+      <c r="A37" s="8" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="n"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="6">
+      <c r="A38" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="n"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="6">
+      <c r="A39" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D39" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H39" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="n"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="6">
+      <c r="A40" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="n"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="6">
+      <c r="A41" s="8" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="n"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="6">
+      <c r="A42" s="9" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="11" t="n"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="6">
+      <c r="A43" s="9" t="n"/>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="11" t="n"/>
+      <c r="H43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="6">
+      <c r="A44" s="9" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="11" t="n"/>
+      <c r="H44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="6">
+      <c r="A45" s="9" t="n"/>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="11" t="n"/>
+      <c r="H45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="6">
+      <c r="A46" s="9" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="11" t="n"/>
+      <c r="H46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="6">
+      <c r="A47" s="9" t="n"/>
+      <c r="B47" s="10" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="11" t="n"/>
+      <c r="H47" s="11" t="n"/>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="6">
+      <c r="A48" s="9" t="n"/>
+      <c r="B48" s="10" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="11" t="n"/>
+      <c r="H48" s="11" t="n"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="6">
+      <c r="A49" s="9" t="n"/>
+      <c r="B49" s="10" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="11" t="n"/>
+      <c r="H49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="6">
+      <c r="A50" s="9" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="11" t="n"/>
+      <c r="H50" s="11" t="n"/>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="6">
+      <c r="A51" s="9" t="n"/>
+      <c r="B51" s="10" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="11" t="n"/>
+      <c r="H51" s="11" t="n"/>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="6">
+      <c r="A52" s="9" t="n"/>
+      <c r="B52" s="10" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="11" t="n"/>
+      <c r="H52" s="11" t="n"/>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="6">
+      <c r="A53" s="9" t="n"/>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="11" t="n"/>
+      <c r="H53" s="11" t="n"/>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="6">
+      <c r="A54" s="9" t="n"/>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="11" t="n"/>
+      <c r="H54" s="11" t="n"/>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="6">
+      <c r="A55" s="9" t="n"/>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="11" t="n"/>
+      <c r="H55" s="11" t="n"/>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="6">
+      <c r="A56" s="9" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="11" t="n"/>
+      <c r="H56" s="11" t="n"/>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="6">
+      <c r="A57" s="9" t="n"/>
+      <c r="B57" s="10" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="11" t="n"/>
+      <c r="H57" s="11" t="n"/>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="6">
+      <c r="A58" s="9" t="n"/>
+      <c r="B58" s="10" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="11" t="n"/>
+      <c r="H58" s="11" t="n"/>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="6">
+      <c r="A59" s="9" t="n"/>
+      <c r="B59" s="10" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="11" t="n"/>
+      <c r="H59" s="11" t="n"/>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="6">
+      <c r="A60" s="9" t="n"/>
+      <c r="B60" s="10" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="11" t="n"/>
+      <c r="H60" s="11" t="n"/>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="6">
+      <c r="A61" s="9" t="n"/>
+      <c r="B61" s="10" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="11" t="n"/>
+      <c r="H61" s="11" t="n"/>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="6">
+      <c r="A62" s="9" t="n"/>
+      <c r="B62" s="10" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="11" t="n"/>
+      <c r="H62" s="11" t="n"/>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="6">
+      <c r="A63" s="9" t="n"/>
+      <c r="B63" s="10" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="11" t="n"/>
+      <c r="H63" s="11" t="n"/>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="6">
+      <c r="A64" s="9" t="n"/>
+      <c r="B64" s="10" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="11" t="n"/>
+      <c r="H64" s="11" t="n"/>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="6">
+      <c r="A65" s="9" t="n"/>
+      <c r="B65" s="10" t="n"/>
+      <c r="C65" s="9" t="n"/>
+      <c r="D65" s="9" t="n"/>
+      <c r="E65" s="9" t="n"/>
+      <c r="F65" s="9" t="n"/>
+      <c r="G65" s="11" t="n"/>
+      <c r="H65" s="11" t="n"/>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="6">
+      <c r="A66" s="9" t="n"/>
+      <c r="B66" s="10" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="11" t="n"/>
+      <c r="H66" s="11" t="n"/>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="6">
+      <c r="A67" s="9" t="n"/>
+      <c r="B67" s="10" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="11" t="n"/>
+      <c r="H67" s="11" t="n"/>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="6">
+      <c r="A68" s="9" t="n"/>
+      <c r="B68" s="10" t="n"/>
+      <c r="C68" s="9" t="n"/>
+      <c r="D68" s="9" t="n"/>
+      <c r="E68" s="9" t="n"/>
+      <c r="F68" s="9" t="n"/>
+      <c r="G68" s="11" t="n"/>
+      <c r="H68" s="11" t="n"/>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="6">
+      <c r="A69" s="9" t="n"/>
+      <c r="B69" s="10" t="n"/>
+      <c r="C69" s="9" t="n"/>
+      <c r="D69" s="9" t="n"/>
+      <c r="E69" s="9" t="n"/>
+      <c r="F69" s="9" t="n"/>
+      <c r="G69" s="11" t="n"/>
+      <c r="H69" s="11" t="n"/>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="6">
+      <c r="A70" s="9" t="n"/>
+      <c r="B70" s="10" t="n"/>
+      <c r="C70" s="9" t="n"/>
+      <c r="D70" s="9" t="n"/>
+      <c r="E70" s="9" t="n"/>
+      <c r="F70" s="9" t="n"/>
+      <c r="G70" s="11" t="n"/>
+      <c r="H70" s="11" t="n"/>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="6">
+      <c r="A71" s="9" t="n"/>
+      <c r="B71" s="10" t="n"/>
+      <c r="C71" s="9" t="n"/>
+      <c r="D71" s="9" t="n"/>
+      <c r="E71" s="9" t="n"/>
+      <c r="F71" s="9" t="n"/>
+      <c r="G71" s="11" t="n"/>
+      <c r="H71" s="11" t="n"/>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="6">
+      <c r="A72" s="9" t="n"/>
+      <c r="B72" s="10" t="n"/>
+      <c r="C72" s="9" t="n"/>
+      <c r="D72" s="9" t="n"/>
+      <c r="E72" s="9" t="n"/>
+      <c r="F72" s="9" t="n"/>
+      <c r="G72" s="11" t="n"/>
+      <c r="H72" s="11" t="n"/>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="6">
+      <c r="A73" s="9" t="n"/>
+      <c r="B73" s="10" t="n"/>
+      <c r="C73" s="9" t="n"/>
+      <c r="D73" s="9" t="n"/>
+      <c r="E73" s="9" t="n"/>
+      <c r="F73" s="9" t="n"/>
+      <c r="G73" s="11" t="n"/>
+      <c r="H73" s="11" t="n"/>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="6">
+      <c r="A74" s="9" t="n"/>
+      <c r="B74" s="10" t="n"/>
+      <c r="C74" s="9" t="n"/>
+      <c r="D74" s="9" t="n"/>
+      <c r="E74" s="9" t="n"/>
+      <c r="F74" s="9" t="n"/>
+      <c r="G74" s="11" t="n"/>
+      <c r="H74" s="11" t="n"/>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="6">
+      <c r="A75" s="9" t="n"/>
+      <c r="B75" s="10" t="n"/>
+      <c r="C75" s="9" t="n"/>
+      <c r="D75" s="9" t="n"/>
+      <c r="E75" s="9" t="n"/>
+      <c r="F75" s="9" t="n"/>
+      <c r="G75" s="11" t="n"/>
+      <c r="H75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.8" customHeight="1" s="6">
+      <c r="A76" s="9" t="n"/>
+      <c r="B76" s="10" t="n"/>
+      <c r="C76" s="9" t="n"/>
+      <c r="D76" s="9" t="n"/>
+      <c r="E76" s="9" t="n"/>
+      <c r="F76" s="9" t="n"/>
+      <c r="G76" s="11" t="n"/>
+      <c r="H76" s="11" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -643,4 +2140,2517 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="6">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Midterm </t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>FinalTerm</t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Homwork</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="6">
+      <c r="A2" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H2" s="10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="6">
+      <c r="A3" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H3" s="10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="6">
+      <c r="A4" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H4" s="10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="6">
+      <c r="A5" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H5" s="10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="6">
+      <c r="A6" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="6">
+      <c r="A7" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="6">
+      <c r="A8" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="6">
+      <c r="A9" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="6">
+      <c r="A10" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="6">
+      <c r="A11" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="6">
+      <c r="A12" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="6">
+      <c r="A13" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="6">
+      <c r="A14" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="6">
+      <c r="A15" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="6">
+      <c r="A16" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="6">
+      <c r="A17" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="6">
+      <c r="A18" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="6">
+      <c r="A19" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="6">
+      <c r="A20" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="6">
+      <c r="A21" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="6">
+      <c r="A22" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="6">
+      <c r="A23" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>61.34999999999999</v>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I23" s="11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="6">
+      <c r="A24" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>61.34999999999999</v>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="6">
+      <c r="A25" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I25" s="11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="6">
+      <c r="A26" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="6">
+      <c r="A27" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="6">
+      <c r="A28" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="6">
+      <c r="A29" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="6">
+      <c r="A30" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H30" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="6">
+      <c r="A31" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="6">
+      <c r="A32" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="6">
+      <c r="A33" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I33" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="6">
+      <c r="A34" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I34" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="6">
+      <c r="A35" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="6">
+      <c r="A36" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="6">
+      <c r="A37" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="6">
+      <c r="A38" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="6">
+      <c r="A39" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="6">
+      <c r="A40" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="6">
+      <c r="A41" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="6">
+      <c r="A42" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H42" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I42" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="6">
+      <c r="A43" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H43" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="6">
+      <c r="A44" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H44" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="6">
+      <c r="A45" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H45" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I45" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="6">
+      <c r="A46" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H46" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I46" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="6">
+      <c r="A47" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H47" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I47" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="6">
+      <c r="A48" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H48" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I48" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="6">
+      <c r="A49" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H49" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I49" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="6">
+      <c r="A50" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B50" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H50" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I50" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="6">
+      <c r="A51" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B51" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>57.84999999999999</v>
+      </c>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I51" s="11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="6">
+      <c r="A52" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="n">
+        <v>57.84999999999999</v>
+      </c>
+      <c r="H52" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I52" s="11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="6">
+      <c r="A53" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B53" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E53" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11" t="n">
+        <v>57.84999999999999</v>
+      </c>
+      <c r="H53" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I53" s="11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="6">
+      <c r="A54" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="n">
+        <v>57.84999999999999</v>
+      </c>
+      <c r="H54" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I54" s="11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="6">
+      <c r="A55" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H55" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I55" s="11" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="6">
+      <c r="A56" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E56" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="H56" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I56" s="11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="6">
+      <c r="A57" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B57" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="H57" s="11" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I57" s="11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="6">
+      <c r="A58" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B58" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E58" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="H58" s="11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I58" s="11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="6">
+      <c r="A59" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H59" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I59" s="11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="6">
+      <c r="A60" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B60" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H60" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I60" s="11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="6">
+      <c r="A61" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B61" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H61" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I61" s="11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="6">
+      <c r="A62" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H62" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I62" s="11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="6">
+      <c r="A63" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B63" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H63" s="11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I63" s="11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="6">
+      <c r="A64" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B64" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="11" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H64" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I64" s="11" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="6">
+      <c r="A65" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B65" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H65" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I65" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="6">
+      <c r="A66" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B66" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H66" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I66" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="6">
+      <c r="A67" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H67" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I67" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="6">
+      <c r="A68" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B68" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D68" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H68" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I68" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="6">
+      <c r="A69" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B69" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H69" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I69" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="6">
+      <c r="A70" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B70" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H70" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I70" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="6">
+      <c r="A71" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B71" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D71" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H71" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I71" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="6">
+      <c r="A72" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B72" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D72" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H72" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I72" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="6">
+      <c r="A73" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B73" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D73" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H73" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I73" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="6">
+      <c r="A74" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H74" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I74" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="6">
+      <c r="A75" s="9" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B75" s="10" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="H75" s="11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I75" s="11" t="n">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -37,6 +37,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -67,16 +74,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -447,480 +460,1493 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16:H29"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Midterm </t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>FinalTerm</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Homwork</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="n">
         <v>20140001</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Sophia</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="n">
+        <v>20140002</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="n">
+        <v>20140003</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="n">
+        <v>20140004</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="3">
+      <c r="A6" s="5" t="n">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="3">
+      <c r="A7" s="5" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="3">
+      <c r="A8" s="5" t="n">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>58.51000000000001</v>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="3">
+      <c r="A9" s="5" t="n">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Ava</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>41.06999999999999</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="D9" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="3">
+      <c r="A10" s="5" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>52.35999999999999</v>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="3">
+      <c r="A11" s="5" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>63.96000000000001</v>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="I11" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="3">
+      <c r="A12" s="5" t="n">
+        <v>20160001</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>kim</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="3">
+      <c r="A13" s="5" t="n">
+        <v>20160002</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>dfsg</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="3">
+      <c r="A14" s="5" t="n">
+        <v>20160003</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>dhd</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="3">
+      <c r="A15" s="5" t="n">
+        <v>20160004</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>qerd</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>60.40000000000001</v>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="3">
+      <c r="A16" s="5" t="n">
+        <v>20160005</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>xcdfs</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="3">
+      <c r="A17" s="5" t="n">
+        <v>20160006</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>dgag</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>60.40000000000001</v>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="3">
+      <c r="A18" s="5" t="n">
+        <v>20160007</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>adfaf</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="3">
+      <c r="A19" s="5" t="n">
+        <v>20160008</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>zdgfd</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="3">
+      <c r="A20" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="3">
+      <c r="A21" s="5" t="n">
+        <v>20170001</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>daf</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="3">
+      <c r="A22" s="5" t="n">
+        <v>20170002</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>qedfc</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="3">
+      <c r="A23" s="5" t="n">
+        <v>20170003</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="3">
+      <c r="A24" s="5" t="n">
+        <v>20170004</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>dfafa</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="3">
+      <c r="A25" s="5" t="n">
+        <v>20170005</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>gaga</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>91.81</v>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="3">
+      <c r="A26" s="5" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="J26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="3">
+      <c r="A27" s="5" t="n">
+        <v>20170007</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>gdh</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>49.17999999999999</v>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="3">
+      <c r="A28" s="5" t="n">
+        <v>20170008</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>zvfd</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="3">
+      <c r="A29" s="5" t="n">
+        <v>20170009</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>eru</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="3">
+      <c r="A30" s="5" t="n">
+        <v>20170010</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>khfd</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="2">
-      <c r="A5" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="D30" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="2">
-      <c r="A6" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="2">
-      <c r="A7" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="J30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="3">
+      <c r="A31" s="5" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>63.96000000000001</v>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="3">
+      <c r="A32" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>41.38</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="D32" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="2">
-      <c r="A8" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>42.37</v>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="I32" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="3">
+      <c r="A33" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="2">
-      <c r="A9" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>43.36</v>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="I33" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="3">
+      <c r="A34" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="2">
-      <c r="A10" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="I34" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="3">
+      <c r="A35" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="3">
+      <c r="A36" s="5" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>44.34999999999999</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="F36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="2">
-      <c r="A11" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>45.34</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="I36" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="3">
+      <c r="A37" s="5" t="n">
+        <v>20170006</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>jhjdgh</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="2">
-      <c r="A12" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="2">
-      <c r="A13" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>47.32</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="2">
-      <c r="A14" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="12.8" customHeight="1" s="2">
-      <c r="A15" s="3" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
+      <c r="I37" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="3">
+      <c r="A38" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="3">
+      <c r="A39" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="3">
+      <c r="A40" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J40" s="5" t="n"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="3">
+      <c r="A41" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" s="5" t="n"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="3">
+      <c r="A42" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" s="5" t="n"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="3">
+      <c r="A43" s="5" t="n">
+        <v>20160009</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>afdaf</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>63.09999999999999</v>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" s="5" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -460,13 +460,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="4" t="inlineStr">
@@ -504,17 +504,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
+      <c r="H1" s="5" t="n"/>
       <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>rank</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -550,9 +541,8 @@
         </is>
       </c>
       <c r="I2" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="J2" s="5" t="n"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="5" t="n">
@@ -580,13 +570,12 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I3" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="n"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="5" t="n">
@@ -618,9 +607,8 @@
         </is>
       </c>
       <c r="I4" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5" t="n"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="5" t="n">
@@ -648,13 +636,12 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J5" s="5" t="n"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="5" t="n">
@@ -682,13 +669,12 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" s="5" t="n"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="5" t="n">
@@ -722,7 +708,6 @@
       <c r="I7" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="n"/>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="5" t="n">
@@ -750,13 +735,12 @@
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I8" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" s="5" t="n"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="5" t="n">
@@ -784,13 +768,12 @@
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I9" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J9" s="5" t="n"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="5" t="n">
@@ -818,13 +801,12 @@
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I10" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" s="5" t="n"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="5" t="n">
@@ -852,13 +834,12 @@
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I11" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" s="5" t="n"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="5" t="n">
@@ -886,13 +867,12 @@
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I12" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="n"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="5" t="n">
@@ -920,13 +900,12 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="I13" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J13" s="5" t="n"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="5" t="n">
@@ -958,9 +937,8 @@
         </is>
       </c>
       <c r="I14" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J14" s="5" t="n"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="5" t="n">
@@ -988,13 +966,12 @@
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I15" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J15" s="5" t="n"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="5" t="n">
@@ -1022,13 +999,12 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I16" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" s="5" t="n"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="5" t="n">
@@ -1056,13 +1032,12 @@
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I17" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J17" s="5" t="n"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="5" t="n">
@@ -1090,13 +1065,12 @@
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="I18" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="J18" s="5" t="n"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="5" t="n">
@@ -1128,9 +1102,8 @@
         </is>
       </c>
       <c r="I19" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="J19" s="5" t="n"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="5" t="n">
@@ -1158,13 +1131,12 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I20" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" s="5" t="n"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="5" t="n">
@@ -1198,7 +1170,6 @@
       <c r="I21" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="J21" s="5" t="n"/>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="5" t="n">
@@ -1230,9 +1201,8 @@
         </is>
       </c>
       <c r="I22" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" s="5" t="n"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="5" t="n">
@@ -1264,9 +1234,8 @@
         </is>
       </c>
       <c r="I23" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="J23" s="5" t="n"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="5" t="n">
@@ -1300,7 +1269,6 @@
       <c r="I24" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="J24" s="5" t="n"/>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="5" t="n">
@@ -1328,13 +1296,12 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I25" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J25" s="5" t="n"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="5" t="n">
@@ -1362,13 +1329,12 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I26" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J26" s="5" t="n"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="5" t="n">
@@ -1400,9 +1366,8 @@
         </is>
       </c>
       <c r="I27" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="J27" s="5" t="n"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="5" t="n">
@@ -1434,9 +1399,8 @@
         </is>
       </c>
       <c r="I28" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="J28" s="5" t="n"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="5" t="n">
@@ -1470,7 +1434,6 @@
       <c r="I29" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="J29" s="5" t="n"/>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="5" t="n">
@@ -1504,7 +1467,6 @@
       <c r="I30" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="J30" s="5" t="n"/>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="5" t="n">
@@ -1532,13 +1494,12 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="I31" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J31" s="5" t="n"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="3">
       <c r="A32" s="5" t="n">
@@ -1566,13 +1527,12 @@
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I32" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" s="5" t="n"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="3">
       <c r="A33" s="5" t="n">
@@ -1600,13 +1560,12 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I33" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" s="5" t="n"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="3">
       <c r="A34" s="5" t="n">
@@ -1634,13 +1593,12 @@
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I34" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" s="5" t="n"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="3">
       <c r="A35" s="5" t="n">
@@ -1668,13 +1626,12 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I35" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J35" s="5" t="n"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="3">
       <c r="A36" s="5" t="n">
@@ -1702,13 +1659,12 @@
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I36" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="J36" s="5" t="n"/>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="3">
       <c r="A37" s="5" t="n">
@@ -1736,13 +1692,12 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I37" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="J37" s="5" t="n"/>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="3">
       <c r="A38" s="5" t="n">
@@ -1770,13 +1725,12 @@
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I38" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J38" s="5" t="n"/>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="3">
       <c r="A39" s="5" t="n">
@@ -1804,13 +1758,12 @@
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I39" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J39" s="5" t="n"/>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="3">
       <c r="A40" s="5" t="n">
@@ -1838,13 +1791,12 @@
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I40" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J40" s="5" t="n"/>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="3">
       <c r="A41" s="5" t="n">
@@ -1872,13 +1824,12 @@
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I41" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J41" s="5" t="n"/>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="3">
       <c r="A42" s="5" t="n">
@@ -1906,13 +1857,12 @@
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I42" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J42" s="5" t="n"/>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="3">
       <c r="A43" s="5" t="n">
@@ -1940,21 +1890,20 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="I43" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J43" s="5" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
